--- a/前端学习小组看视频时长记录.xlsx
+++ b/前端学习小组看视频时长记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\谢铖\Desktop\datacraft_frontend_team_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF0C10-7866-4675-86FB-5D6300404CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AFC60D-0B22-4767-9B57-77AD73C3A66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -437,9 +437,11 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>00:00:00</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>01:04:22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.4699074074074079E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -452,7 +454,7 @@
       <c r="C5" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5UKXVZqReEJ4uH/6FTvccGJYs2S6fYjtSUWW6s3sWALHYezCAlHEh8FIXAr5flQhvfPwDqay3ouf94nrxtbFmg==" saltValue="9BlKEJKtW1+DGVHuiBujXg==" spinCount="100000" sheet="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oO48MqHKOfpu1L6rCWcJVhgOCDg5D1/UELUxIuMhTzqtvaLaywBcOIGNlUM1qFTPi9AoDBXpho85T9MCaRb9qQ==" saltValue="nE6oOZ4cswH8sn+Qp5avtQ==" spinCount="100000" sheet="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
